--- a/Excel/20-06-2024.xlsx
+++ b/Excel/20-06-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\Desktop\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acviss\git\repository8\2AFMC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A801479-863F-4347-97C1-4A16932199FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E30BCC9-1970-4F65-8586-628E34191CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6736158F-5B10-42D5-8C6D-4A25EABA814A}"/>
   </bookViews>
@@ -1094,9 +1094,6 @@
     <t>L46-J2Q-P2H</t>
   </si>
   <si>
-    <t>150 ML</t>
-  </si>
-  <si>
     <t>2024-06-18 15:53:38+05:30</t>
   </si>
   <si>
@@ -1266,6 +1263,9 @@
   </si>
   <si>
     <t>2024-06-19 22:29:52.325591+00:00</t>
+  </si>
+  <si>
+    <t>150ML</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDABB41C-7108-4E65-AE26-1AC725AFCDBC}">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5199,7 +5199,7 @@
         <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F64">
         <v>11006848</v>
@@ -5211,22 +5211,22 @@
         <v>196736</v>
       </c>
       <c r="I64" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" t="s">
         <v>353</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>354</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M64" t="s">
         <v>355</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>356</v>
       </c>
-      <c r="N64" t="s">
-        <v>357</v>
-      </c>
       <c r="O64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -5238,18 +5238,18 @@
         <v>111680</v>
       </c>
       <c r="V64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" t="s">
         <v>359</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>360</v>
-      </c>
-      <c r="C65" t="s">
-        <v>361</v>
       </c>
       <c r="D65" t="s">
         <v>309</v>
@@ -5276,13 +5276,13 @@
         <v>311</v>
       </c>
       <c r="M65" t="s">
+        <v>361</v>
+      </c>
+      <c r="N65" t="s">
         <v>362</v>
       </c>
-      <c r="N65" t="s">
-        <v>363</v>
-      </c>
       <c r="O65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" t="s">
         <v>364</v>
       </c>
-      <c r="B66" t="s">
-        <v>365</v>
-      </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D66" t="s">
         <v>309</v>
@@ -5332,13 +5332,13 @@
         <v>311</v>
       </c>
       <c r="M66" t="s">
+        <v>365</v>
+      </c>
+      <c r="N66" t="s">
         <v>366</v>
       </c>
-      <c r="N66" t="s">
-        <v>367</v>
-      </c>
       <c r="O66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -5355,13 +5355,13 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" t="s">
         <v>368</v>
       </c>
-      <c r="B67" t="s">
-        <v>369</v>
-      </c>
       <c r="C67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D67" t="s">
         <v>309</v>
@@ -5388,13 +5388,13 @@
         <v>311</v>
       </c>
       <c r="M67" t="s">
+        <v>369</v>
+      </c>
+      <c r="N67" t="s">
         <v>370</v>
       </c>
-      <c r="N67" t="s">
-        <v>371</v>
-      </c>
       <c r="O67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -5411,13 +5411,13 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" t="s">
         <v>372</v>
       </c>
-      <c r="B68" t="s">
-        <v>373</v>
-      </c>
       <c r="C68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D68" t="s">
         <v>309</v>
@@ -5444,13 +5444,13 @@
         <v>311</v>
       </c>
       <c r="M68" t="s">
+        <v>373</v>
+      </c>
+      <c r="N68" t="s">
         <v>374</v>
       </c>
-      <c r="N68" t="s">
-        <v>375</v>
-      </c>
       <c r="O68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -5467,13 +5467,13 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>375</v>
+      </c>
+      <c r="B69" t="s">
         <v>376</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>377</v>
-      </c>
-      <c r="C69" t="s">
-        <v>378</v>
       </c>
       <c r="D69" t="s">
         <v>309</v>
@@ -5491,22 +5491,22 @@
         <v>196865</v>
       </c>
       <c r="I69" t="s">
+        <v>378</v>
+      </c>
+      <c r="J69" t="s">
         <v>379</v>
-      </c>
-      <c r="J69" t="s">
-        <v>380</v>
       </c>
       <c r="K69" t="s">
         <v>311</v>
       </c>
       <c r="M69" t="s">
+        <v>380</v>
+      </c>
+      <c r="N69" t="s">
         <v>381</v>
       </c>
-      <c r="N69" t="s">
-        <v>382</v>
-      </c>
       <c r="O69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -5523,13 +5523,13 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" t="s">
         <v>383</v>
       </c>
-      <c r="B70" t="s">
-        <v>384</v>
-      </c>
       <c r="C70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
         <v>309</v>
@@ -5547,22 +5547,22 @@
         <v>196865</v>
       </c>
       <c r="I70" t="s">
+        <v>378</v>
+      </c>
+      <c r="J70" t="s">
         <v>379</v>
-      </c>
-      <c r="J70" t="s">
-        <v>380</v>
       </c>
       <c r="K70" t="s">
         <v>311</v>
       </c>
       <c r="M70" t="s">
+        <v>384</v>
+      </c>
+      <c r="N70" t="s">
         <v>385</v>
       </c>
-      <c r="N70" t="s">
-        <v>386</v>
-      </c>
       <c r="O70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -5579,16 +5579,16 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" t="s">
         <v>387</v>
-      </c>
-      <c r="B71" t="s">
-        <v>388</v>
       </c>
       <c r="D71" t="s">
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F71">
         <v>11006848</v>
@@ -5600,22 +5600,22 @@
         <v>196736</v>
       </c>
       <c r="I71" t="s">
+        <v>388</v>
+      </c>
+      <c r="J71" t="s">
         <v>389</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
+        <v>354</v>
+      </c>
+      <c r="M71" t="s">
         <v>390</v>
       </c>
-      <c r="K71" t="s">
-        <v>355</v>
-      </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>391</v>
       </c>
-      <c r="N71" t="s">
-        <v>392</v>
-      </c>
       <c r="O71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -5630,24 +5630,24 @@
         <v>111680</v>
       </c>
       <c r="V71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" t="s">
         <v>393</v>
       </c>
-      <c r="B72" t="s">
-        <v>394</v>
-      </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D72" t="s">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F72">
         <v>11006848</v>
@@ -5659,22 +5659,22 @@
         <v>196736</v>
       </c>
       <c r="I72" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" t="s">
         <v>389</v>
       </c>
-      <c r="J72" t="s">
-        <v>390</v>
-      </c>
       <c r="K72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M72" t="s">
+        <v>394</v>
+      </c>
+      <c r="N72" t="s">
         <v>395</v>
       </c>
-      <c r="N72" t="s">
-        <v>396</v>
-      </c>
       <c r="O72" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -5686,15 +5686,15 @@
         <v>111680</v>
       </c>
       <c r="V72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" t="s">
         <v>397</v>
-      </c>
-      <c r="B73" t="s">
-        <v>398</v>
       </c>
       <c r="D73" t="s">
         <v>309</v>
@@ -5712,22 +5712,22 @@
         <v>196865</v>
       </c>
       <c r="I73" t="s">
+        <v>378</v>
+      </c>
+      <c r="J73" t="s">
         <v>379</v>
-      </c>
-      <c r="J73" t="s">
-        <v>380</v>
       </c>
       <c r="K73" t="s">
         <v>311</v>
       </c>
       <c r="M73" t="s">
+        <v>398</v>
+      </c>
+      <c r="N73" t="s">
         <v>399</v>
       </c>
-      <c r="N73" t="s">
-        <v>400</v>
-      </c>
       <c r="O73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
@@ -5747,13 +5747,13 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>400</v>
+      </c>
+      <c r="B74" t="s">
         <v>401</v>
       </c>
-      <c r="B74" t="s">
-        <v>402</v>
-      </c>
       <c r="C74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D74" t="s">
         <v>309</v>
@@ -5771,22 +5771,22 @@
         <v>196865</v>
       </c>
       <c r="I74" t="s">
+        <v>378</v>
+      </c>
+      <c r="J74" t="s">
         <v>379</v>
-      </c>
-      <c r="J74" t="s">
-        <v>380</v>
       </c>
       <c r="K74" t="s">
         <v>311</v>
       </c>
       <c r="M74" t="s">
+        <v>402</v>
+      </c>
+      <c r="N74" t="s">
         <v>403</v>
       </c>
-      <c r="N74" t="s">
-        <v>404</v>
-      </c>
       <c r="O74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -5803,13 +5803,13 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B75" t="s">
         <v>405</v>
       </c>
-      <c r="B75" t="s">
-        <v>406</v>
-      </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D75" t="s">
         <v>309</v>
@@ -5827,22 +5827,22 @@
         <v>196865</v>
       </c>
       <c r="I75" t="s">
+        <v>378</v>
+      </c>
+      <c r="J75" t="s">
         <v>379</v>
-      </c>
-      <c r="J75" t="s">
-        <v>380</v>
       </c>
       <c r="K75" t="s">
         <v>311</v>
       </c>
       <c r="M75" t="s">
+        <v>406</v>
+      </c>
+      <c r="N75" t="s">
         <v>407</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>408</v>
-      </c>
-      <c r="O75" t="s">
-        <v>409</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
